--- a/PS.xlsx
+++ b/PS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\androapp\st\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59882F1-C55A-43D2-A70F-7D509CEF310A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6638AE2-1C9B-4188-B32B-A59E948B015A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="31" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="30" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -922,7 +922,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -938,14 +938,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -959,11 +959,11 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,7 +1024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9268,8 +9268,8 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9368,7 +9368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -9378,7 +9378,9 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15">
         <f>+'6'!E12+'12'!E12+'8'!E12+'7'!E12+'2'!E12+'5'!E12+'4'!E12+'9'!E12+'1'!E12+'10'!E12+'3'!E12+'11'!E12+'13'!E12+'14'!E12+'15'!E12+'16'!E12+'17'!E12+'18'!E12+'19'!E12</f>
         <v>0</v>
@@ -9388,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -9398,7 +9400,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15">
         <f>+'6'!E13+'12'!E13+'8'!E13+'7'!E13+'2'!E13+'5'!E13+'4'!E13+'9'!E13+'1'!E13+'10'!E13+'3'!E13+'11'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13</f>
         <v>0</v>
@@ -10285,14 +10289,14 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -10392,7 +10396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -10402,14 +10406,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -10419,7 +10425,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -11161,14 +11169,14 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -11268,7 +11276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -11278,14 +11286,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -11295,14 +11305,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -12037,14 +12049,14 @@
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -12144,7 +12156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -12154,14 +12166,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -12171,14 +12185,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -12915,14 +12931,14 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -13020,7 +13036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -13030,14 +13046,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -13047,14 +13065,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -13788,14 +13808,14 @@
   <sheetPr codeName="Feuil14"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -13895,7 +13915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -13905,14 +13925,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -13922,14 +13944,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -14664,14 +14688,14 @@
   <sheetPr codeName="Feuil15"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -14771,7 +14795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -14781,14 +14805,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -14798,14 +14824,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -15540,14 +15568,14 @@
   <sheetPr codeName="Feuil16"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -15647,7 +15675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -15657,14 +15685,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -15674,14 +15704,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -16416,14 +16448,14 @@
   <sheetPr codeName="Feuil17"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -16523,7 +16555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -16533,14 +16565,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -16550,14 +16584,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -17292,14 +17328,14 @@
   <sheetPr codeName="Feuil18"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -17399,7 +17435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -17409,14 +17445,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -17426,14 +17464,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -18168,14 +18208,14 @@
   <sheetPr codeName="Feuil19"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -18275,7 +18315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -18285,14 +18325,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -18302,14 +18344,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -19046,14 +19090,14 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -19153,7 +19197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -19163,14 +19207,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -19180,14 +19226,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -19922,14 +19970,14 @@
   <sheetPr codeName="Feuil20"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -20026,7 +20074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -20036,14 +20084,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -20053,14 +20103,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -20795,14 +20847,14 @@
   <sheetPr codeName="Feuil21"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -20899,7 +20951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -20909,14 +20961,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -20926,14 +20980,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -21668,14 +21724,14 @@
   <sheetPr codeName="Feuil22"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -21772,7 +21828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -21782,14 +21838,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -21799,14 +21857,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -22541,14 +22601,14 @@
   <sheetPr codeName="Feuil23"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -22645,7 +22705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -22655,14 +22715,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -22672,14 +22734,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -23414,14 +23478,14 @@
   <sheetPr codeName="Feuil24"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -23518,7 +23582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -23528,14 +23592,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -23545,14 +23611,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -24287,14 +24355,14 @@
   <sheetPr codeName="Feuil25"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -24391,7 +24459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -24401,14 +24469,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -24418,14 +24488,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -25160,14 +25232,14 @@
   <sheetPr codeName="Feuil26"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -25264,7 +25336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -25274,14 +25346,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -25291,14 +25365,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -26033,14 +26109,14 @@
   <sheetPr codeName="Feuil27"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -26137,7 +26213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -26147,14 +26223,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -26164,14 +26242,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -26906,14 +26986,14 @@
   <sheetPr codeName="Feuil28"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -27010,7 +27090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -27020,14 +27100,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -27037,14 +27119,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -27779,14 +27863,14 @@
   <sheetPr codeName="Feuil29"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -27883,7 +27967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -27893,14 +27977,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -27910,14 +27996,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -28654,14 +28742,14 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -28761,7 +28849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -28771,14 +28859,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -28788,14 +28878,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -29530,14 +29622,14 @@
   <sheetPr codeName="Feuil30"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -29634,7 +29726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -29644,14 +29736,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -29661,14 +29755,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -30403,14 +30499,14 @@
   <sheetPr codeName="Feuil31"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -30507,7 +30603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -30517,14 +30613,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -30534,14 +30632,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -31276,14 +31376,14 @@
   <sheetPr codeName="Feuil32"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -31380,7 +31480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -31390,14 +31490,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -31407,14 +31509,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -32149,14 +32253,14 @@
   <sheetPr codeName="Feuil33"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -32253,7 +32357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -32263,14 +32367,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -32280,14 +32386,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -33022,14 +33130,14 @@
   <sheetPr codeName="Feuil34"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -33126,7 +33234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -33136,14 +33244,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -33153,14 +33263,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -33895,14 +34007,14 @@
   <sheetPr codeName="Feuil35"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -33999,7 +34111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -34009,14 +34121,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -34026,14 +34140,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -34768,14 +34884,14 @@
   <sheetPr codeName="Feuil36"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -34872,7 +34988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -34882,14 +34998,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -34899,14 +35017,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -35641,14 +35761,14 @@
   <sheetPr codeName="Feuil37"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -35745,7 +35865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -35755,14 +35875,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -35772,14 +35894,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -36514,14 +36638,14 @@
   <sheetPr codeName="Feuil38"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -36618,7 +36742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -36628,14 +36752,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -36645,14 +36771,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -37387,14 +37515,14 @@
   <sheetPr codeName="Feuil39"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -37491,7 +37619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -37501,14 +37629,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -37518,14 +37648,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -38262,14 +38394,14 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -38369,7 +38501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -38379,14 +38511,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -38396,14 +38530,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -39138,14 +39274,14 @@
   <sheetPr codeName="Feuil40"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -39242,7 +39378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -39252,14 +39388,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -39269,14 +39407,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -40011,14 +40151,14 @@
   <sheetPr codeName="Feuil41"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -40115,7 +40255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -40125,14 +40265,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -40142,14 +40284,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -40884,14 +41028,14 @@
   <sheetPr codeName="Feuil42"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -40988,7 +41132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -40998,14 +41142,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -41015,14 +41161,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -41757,14 +41905,14 @@
   <sheetPr codeName="Feuil43"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -41861,7 +42009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -41871,14 +42019,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -41888,14 +42038,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -42630,14 +42782,14 @@
   <sheetPr codeName="Feuil44"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -42734,7 +42886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -42744,14 +42896,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -42761,14 +42915,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -43503,14 +43659,14 @@
   <sheetPr codeName="Feuil45"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -43607,7 +43763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -43617,14 +43773,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -43634,14 +43792,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -44376,14 +44536,14 @@
   <sheetPr codeName="Feuil46"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -44480,7 +44640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -44490,14 +44650,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -44507,14 +44669,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -45250,13 +45414,13 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -45353,7 +45517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -45363,14 +45527,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -45380,14 +45546,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -46124,14 +46292,14 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -46231,7 +46399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -46241,14 +46409,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -46258,14 +46428,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -47002,14 +47174,14 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -47109,7 +47281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -47119,14 +47291,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -47136,14 +47310,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -47880,14 +48056,14 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -47990,7 +48166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -48000,14 +48176,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -48017,14 +48195,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -48760,14 +48940,14 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -48867,7 +49047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -48877,14 +49057,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -48894,14 +49076,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -49638,14 +49822,14 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
@@ -49745,7 +49929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -49755,14 +49939,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>178</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -49772,14 +49958,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>178</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>

--- a/PS.xlsx
+++ b/PS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6638AE2-1C9B-4188-B32B-A59E948B015A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5A01FB-12B6-4B1B-9C7C-F673F1264A75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="30" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -226,9 +226,6 @@
     <t>CACHET</t>
   </si>
   <si>
-    <t>HAKIM OULD KHESSAL</t>
-  </si>
-  <si>
     <t>ABDERRAHMAN SAADOUN</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>BACHDJERAH HUSSEIN DEY EL MAGHARIA BOUROUBA</t>
   </si>
   <si>
-    <t>HAMIDANE MUSTAPHA</t>
-  </si>
-  <si>
     <t>ZOUBIRI AMINE</t>
   </si>
   <si>
@@ -261,15 +255,21 @@
   <si>
     <t>MM16F01 - MANSOUR HICHEM</t>
   </si>
+  <si>
+    <t>DEBAGH OUSSAMA</t>
+  </si>
+  <si>
+    <t>SEBAIHI SIDALI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -922,7 +922,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -938,14 +938,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -959,11 +959,11 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,7 +1024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9268,8 +9268,8 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9329,7 +9329,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
@@ -9337,7 +9337,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
@@ -9345,7 +9345,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
@@ -9989,7 +9989,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -10011,7 +10011,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -10033,7 +10033,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -10055,7 +10055,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -10172,7 +10172,7 @@
     <row r="53" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="60" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B54" s="61"/>
       <c r="C54" s="22"/>
@@ -10183,7 +10183,7 @@
     </row>
     <row r="55" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="61"/>
       <c r="C55" s="22"/>
@@ -10194,7 +10194,7 @@
     </row>
     <row r="56" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="60" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56" s="61"/>
       <c r="C56" s="49"/>
@@ -10205,7 +10205,7 @@
     </row>
     <row r="57" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="61"/>
       <c r="C57" s="22"/>
@@ -10289,7 +10289,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -10933,7 +10933,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -10952,7 +10952,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -10971,7 +10971,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -10990,7 +10990,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -11169,7 +11169,7 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -11813,7 +11813,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -11832,7 +11832,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -11851,7 +11851,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -11870,7 +11870,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -12049,7 +12049,7 @@
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -12693,7 +12693,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -12712,7 +12712,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -12731,7 +12731,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -12750,7 +12750,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -12931,7 +12931,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -13573,7 +13573,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -13592,7 +13592,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -13611,7 +13611,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -13630,7 +13630,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -13808,7 +13808,7 @@
   <sheetPr codeName="Feuil14"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -14452,7 +14452,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -14471,7 +14471,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -14490,7 +14490,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -14509,7 +14509,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -14688,7 +14688,7 @@
   <sheetPr codeName="Feuil15"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -15332,7 +15332,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -15351,7 +15351,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -15370,7 +15370,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -15389,7 +15389,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -15568,7 +15568,7 @@
   <sheetPr codeName="Feuil16"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -16212,7 +16212,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -16231,7 +16231,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -16250,7 +16250,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -16269,7 +16269,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -16448,7 +16448,7 @@
   <sheetPr codeName="Feuil17"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -17092,7 +17092,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -17111,7 +17111,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -17130,7 +17130,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -17149,7 +17149,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -17328,7 +17328,7 @@
   <sheetPr codeName="Feuil18"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -17972,7 +17972,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -17991,7 +17991,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -18010,7 +18010,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -18029,7 +18029,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -18208,7 +18208,7 @@
   <sheetPr codeName="Feuil19"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -18852,7 +18852,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -18871,7 +18871,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -18890,7 +18890,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -18909,7 +18909,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -19090,7 +19090,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -19734,7 +19734,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -19753,7 +19753,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -19772,7 +19772,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -19791,7 +19791,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -19970,7 +19970,7 @@
   <sheetPr codeName="Feuil20"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -20611,7 +20611,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -20630,7 +20630,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -20649,7 +20649,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -20668,7 +20668,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -20847,7 +20847,7 @@
   <sheetPr codeName="Feuil21"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -21488,7 +21488,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -21507,7 +21507,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -21526,7 +21526,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -21545,7 +21545,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -21724,7 +21724,7 @@
   <sheetPr codeName="Feuil22"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -22365,7 +22365,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -22384,7 +22384,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -22403,7 +22403,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -22422,7 +22422,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -22601,7 +22601,7 @@
   <sheetPr codeName="Feuil23"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -23242,7 +23242,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -23261,7 +23261,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -23280,7 +23280,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -23299,7 +23299,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -23478,7 +23478,7 @@
   <sheetPr codeName="Feuil24"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -24119,7 +24119,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -24138,7 +24138,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -24157,7 +24157,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -24176,7 +24176,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -24355,7 +24355,7 @@
   <sheetPr codeName="Feuil25"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -24996,7 +24996,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -25015,7 +25015,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -25034,7 +25034,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -25053,7 +25053,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -25232,7 +25232,7 @@
   <sheetPr codeName="Feuil26"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -25873,7 +25873,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -25892,7 +25892,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -25911,7 +25911,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -25930,7 +25930,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -26109,7 +26109,7 @@
   <sheetPr codeName="Feuil27"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -26750,7 +26750,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -26769,7 +26769,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -26788,7 +26788,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -26807,7 +26807,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -26986,7 +26986,7 @@
   <sheetPr codeName="Feuil28"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -27627,7 +27627,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -27646,7 +27646,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -27665,7 +27665,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -27684,7 +27684,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -27863,7 +27863,7 @@
   <sheetPr codeName="Feuil29"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -28504,7 +28504,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -28523,7 +28523,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -28542,7 +28542,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -28561,7 +28561,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -28742,7 +28742,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -29386,7 +29386,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -29405,7 +29405,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -29424,7 +29424,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -29443,7 +29443,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -29622,7 +29622,7 @@
   <sheetPr codeName="Feuil30"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -30263,7 +30263,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -30282,7 +30282,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -30301,7 +30301,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -30320,7 +30320,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -30499,7 +30499,7 @@
   <sheetPr codeName="Feuil31"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -31140,7 +31140,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -31159,7 +31159,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -31178,7 +31178,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -31197,7 +31197,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -31376,7 +31376,7 @@
   <sheetPr codeName="Feuil32"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -32017,7 +32017,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -32036,7 +32036,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -32055,7 +32055,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -32074,7 +32074,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -32253,7 +32253,7 @@
   <sheetPr codeName="Feuil33"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -32894,7 +32894,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -32913,7 +32913,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -32932,7 +32932,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -32951,7 +32951,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -33130,7 +33130,7 @@
   <sheetPr codeName="Feuil34"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -33771,7 +33771,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -33790,7 +33790,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -33809,7 +33809,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -33828,7 +33828,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -34007,7 +34007,7 @@
   <sheetPr codeName="Feuil35"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -34648,7 +34648,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -34667,7 +34667,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -34686,7 +34686,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -34705,7 +34705,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -34884,7 +34884,7 @@
   <sheetPr codeName="Feuil36"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -35525,7 +35525,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -35544,7 +35544,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -35563,7 +35563,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -35582,7 +35582,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -35761,7 +35761,7 @@
   <sheetPr codeName="Feuil37"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -36402,7 +36402,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -36421,7 +36421,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -36440,7 +36440,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -36459,7 +36459,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -36638,7 +36638,7 @@
   <sheetPr codeName="Feuil38"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -37279,7 +37279,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -37298,7 +37298,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -37317,7 +37317,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -37336,7 +37336,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -37515,7 +37515,7 @@
   <sheetPr codeName="Feuil39"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -38156,7 +38156,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -38175,7 +38175,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -38194,7 +38194,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -38213,7 +38213,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -38394,7 +38394,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -39038,7 +39038,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -39057,7 +39057,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -39076,7 +39076,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -39095,7 +39095,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -39274,7 +39274,7 @@
   <sheetPr codeName="Feuil40"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -39915,7 +39915,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -39934,7 +39934,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -39953,7 +39953,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -39972,7 +39972,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -40151,7 +40151,7 @@
   <sheetPr codeName="Feuil41"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -40792,7 +40792,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -40811,7 +40811,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -40830,7 +40830,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -40849,7 +40849,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -41028,7 +41028,7 @@
   <sheetPr codeName="Feuil42"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -41669,7 +41669,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -41688,7 +41688,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -41707,7 +41707,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -41726,7 +41726,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -41905,7 +41905,7 @@
   <sheetPr codeName="Feuil43"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -42546,7 +42546,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -42565,7 +42565,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -42584,7 +42584,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -42603,7 +42603,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -42782,7 +42782,7 @@
   <sheetPr codeName="Feuil44"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -43423,7 +43423,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -43442,7 +43442,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -43461,7 +43461,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -43480,7 +43480,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -43659,7 +43659,7 @@
   <sheetPr codeName="Feuil45"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -44300,7 +44300,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -44319,7 +44319,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -44338,7 +44338,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -44357,7 +44357,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -44536,7 +44536,7 @@
   <sheetPr codeName="Feuil46"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -45177,7 +45177,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -45196,7 +45196,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -45215,7 +45215,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -45234,7 +45234,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -45413,7 +45413,7 @@
   <sheetPr codeName="Feuil47"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -46054,7 +46054,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -46073,7 +46073,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -46092,7 +46092,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -46111,7 +46111,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -46292,7 +46292,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -46936,7 +46936,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -46955,7 +46955,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -46974,7 +46974,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -46993,7 +46993,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -47174,7 +47174,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -47818,7 +47818,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -47837,7 +47837,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -47856,7 +47856,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -47875,7 +47875,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -48056,7 +48056,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -48143,7 +48143,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
@@ -48703,7 +48703,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -48722,7 +48722,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -48741,7 +48741,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -48760,7 +48760,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -48940,7 +48940,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -49584,7 +49584,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -49603,7 +49603,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -49622,7 +49622,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -49641,7 +49641,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -49822,7 +49822,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -50466,7 +50466,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -50485,7 +50485,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -50504,7 +50504,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -50523,7 +50523,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
